--- a/APTAutomationProject/src/com/colt/qa/datalibrary/IPVPN_newTab.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/IPVPN_newTab.xlsx
@@ -24,9 +24,6 @@
     <t>Run</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>customerName</t>
   </si>
   <si>
@@ -316,6 +313,9 @@
   </si>
   <si>
     <t>MTNL</t>
+  </si>
+  <si>
+    <t>url for the Product</t>
   </si>
 </sst>
 </file>
@@ -666,9 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -737,417 +735,417 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="F2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AG2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AM2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="AS2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AU2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="AY2" s="1">
         <v>127</v>
       </c>
       <c r="AZ2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="BA2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BG2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="BD2" s="5" t="s">
+      <c r="BH2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="BF2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="BI2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BN2" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="BO2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BP2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
